--- a/Validating_selection_scheme/plate_map_overnight/Plate_map_overnight_cultures.xlsx
+++ b/Validating_selection_scheme/plate_map_overnight/Plate_map_overnight_cultures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/plate_map_overnight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C019F0F-F88B-7A49-B4A2-F06B7438B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02074A16-C97F-564E-B38F-B5D4555D97F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="35200" windowHeight="16940" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE13B518-F504-C341-9466-68307EBC3A78}">
   <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Validating_selection_scheme/plate_map_overnight/Plate_map_overnight_cultures.xlsx
+++ b/Validating_selection_scheme/plate_map_overnight/Plate_map_overnight_cultures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/plate_map_overnight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02074A16-C97F-564E-B38F-B5D4555D97F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999ECF55-DC6D-0B40-B4FF-71494A45A0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="35200" windowHeight="16940" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +629,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:N11"/>
+      <selection activeCell="B2" sqref="B2:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +737,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
@@ -757,9 +760,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -770,16 +775,14 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="2:16" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="20"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7"/>
@@ -795,9 +798,9 @@
         <v>6</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
